--- a/docss/trend/norway/E_huntington.xlsx
+++ b/docss/trend/norway/E_huntington.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\norway\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\norway\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,13 +1583,13 @@
         <v>1999</v>
       </c>
       <c r="B2" s="7">
-        <v>0.23902965057641268</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="C2" s="7">
-        <v>0.22036067582666899</v>
+        <v>0.22</v>
       </c>
       <c r="D2" s="7">
-        <v>0.25835293531417847</v>
+        <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,13 +1597,13 @@
         <v>2000</v>
       </c>
       <c r="B3" s="7">
-        <v>0.1168823279440403</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="C3" s="7">
-        <v>5.5984674021601677E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D3" s="7">
-        <v>0.18405918031930923</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,13 +1611,13 @@
         <v>2001</v>
       </c>
       <c r="B4" s="7">
-        <v>0.31748364306986332</v>
+        <v>0.317</v>
       </c>
       <c r="C4" s="7">
-        <v>0.17964291572570801</v>
+        <v>0.18</v>
       </c>
       <c r="D4" s="7">
-        <v>0.4388792347162962</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,13 +1625,13 @@
         <v>2002</v>
       </c>
       <c r="B5" s="7">
-        <v>0.3818370969966054</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="C5" s="7">
-        <v>0.34147698432207108</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D5" s="7">
-        <v>0.43295358214527369</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,13 +1639,13 @@
         <v>2003</v>
       </c>
       <c r="B6" s="7">
-        <v>0.28288955893367529</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="C6" s="7">
-        <v>0.43907354772090912</v>
+        <v>0.439</v>
       </c>
       <c r="D6" s="7">
-        <v>0.13029684871435165</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,13 +1653,13 @@
         <v>2004</v>
       </c>
       <c r="B7" s="7">
-        <v>0.25024147890508175</v>
+        <v>0.25</v>
       </c>
       <c r="C7" s="7">
-        <v>0.24495806358754635</v>
+        <v>0.245</v>
       </c>
       <c r="D7" s="7">
-        <v>0.24785144254565239</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,13 +1667,13 @@
         <v>2005</v>
       </c>
       <c r="B8" s="7">
-        <v>0.24263736419379711</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="C8" s="7">
-        <v>0.21680320426821709</v>
+        <v>0.217</v>
       </c>
       <c r="D8" s="7">
-        <v>0.28780713025480509</v>
+        <v>0.28799999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,13 +1681,13 @@
         <v>2006</v>
       </c>
       <c r="B9" s="7">
-        <v>0.23854698054492474</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="C9" s="7">
-        <v>0.33029033057391644</v>
+        <v>0.33</v>
       </c>
       <c r="D9" s="7">
-        <v>0.18814547918736935</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,13 +1695,13 @@
         <v>2007</v>
       </c>
       <c r="B10" s="7">
-        <v>0.30611880496144295</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="C10" s="7">
-        <v>0.33733338117599487</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D10" s="7">
-        <v>0.27665814943611622</v>
+        <v>0.27700000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,13 +1709,13 @@
         <v>2008</v>
       </c>
       <c r="B11" s="7">
-        <v>0.36380499321967363</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="C11" s="7">
-        <v>0.37216324731707573</v>
+        <v>0.372</v>
       </c>
       <c r="D11" s="7">
-        <v>0.355447668582201</v>
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,13 +1723,13 @@
         <v>2009</v>
       </c>
       <c r="B12" s="7">
-        <v>0.37163995020091534</v>
+        <v>0.372</v>
       </c>
       <c r="C12" s="7">
-        <v>0.43179938569664955</v>
+        <v>0.432</v>
       </c>
       <c r="D12" s="7">
-        <v>0.31718635931611061</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,13 +1737,13 @@
         <v>2010</v>
       </c>
       <c r="B13" s="7">
-        <v>0.19180894829332829</v>
+        <v>0.192</v>
       </c>
       <c r="C13" s="7">
-        <v>7.36493319272995E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D13" s="7">
-        <v>0.30221660248935223</v>
+        <v>0.30199999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,13 +1751,13 @@
         <v>2011</v>
       </c>
       <c r="B14" s="7">
-        <v>0.26717856246978045</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="C14" s="7">
-        <v>0.3332544881850481</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D14" s="7">
-        <v>0.20954365469515324</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,13 +1765,13 @@
         <v>2012</v>
       </c>
       <c r="B15" s="7">
-        <v>0.33959670178592205</v>
+        <v>0.34</v>
       </c>
       <c r="C15" s="7">
-        <v>0.41861424967646599</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D15" s="7">
-        <v>0.26741760596632957</v>
+        <v>0.26700000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,13 +1779,13 @@
         <v>2013</v>
       </c>
       <c r="B16" s="7">
-        <v>0.3015522314235568</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="C16" s="7">
-        <v>0.22786147519946098</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="D16" s="7">
-        <v>0.3808278301730752</v>
+        <v>0.38100000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1793,13 +1793,13 @@
         <v>2014</v>
       </c>
       <c r="B17" s="7">
-        <v>0.25737212598323822</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="C17" s="7">
-        <v>0.35374556295573711</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="D17" s="7">
-        <v>0.17462510615587234</v>
+        <v>0.17499999999999999</v>
       </c>
     </row>
   </sheetData>
